--- a/storage notes.xlsx
+++ b/storage notes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="375" windowWidth="16995" windowHeight="10515"/>
+    <workbookView xWindow="720" yWindow="435" windowWidth="16995" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,8 +15,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>dm</author>
+  </authors>
+  <commentList>
+    <comment ref="BD4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>dm:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+the use of ordinals makes it easier to move forward and backward from our current position.  In fact we can find the location of the other record without even touching our record (we have to touch the record_offsets array, but that is much smaller than the records in the extents and likely to be cached)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="117">
   <si>
     <t>deleted after start of cursor</t>
   </si>
@@ -51,15 +85,9 @@
     <t>r5</t>
   </si>
   <si>
-    <t>record's ordinal in extent:</t>
-  </si>
-  <si>
     <t>makeCursor()</t>
   </si>
   <si>
-    <t>n:5</t>
-  </si>
-  <si>
     <t xml:space="preserve">  endPoint = (lastExtent,lastExtent.n)</t>
   </si>
   <si>
@@ -93,12 +121,6 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>compaction</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Extent #2</t>
   </si>
   <si>
@@ -108,9 +130,6 @@
     <t xml:space="preserve">intra-extent ordinals: </t>
   </si>
   <si>
-    <t>Deletes</t>
-  </si>
-  <si>
     <t>vloc</t>
   </si>
   <si>
@@ -130,9 +149,6 @@
   </si>
   <si>
     <t>^- time deleted</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  stop when hit endPoint</t>
   </si>
   <si>
     <t>…</t>
@@ -281,9 +297,6 @@
     <t>time</t>
   </si>
   <si>
-    <t>Ordinal:</t>
-  </si>
-  <si>
     <t xml:space="preserve">PhysLoc: </t>
   </si>
   <si>
@@ -317,9 +330,6 @@
     <t>VLocDict</t>
   </si>
   <si>
-    <t>(per collection)</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -329,12 +339,6 @@
     <t>z</t>
   </si>
   <si>
-    <t xml:space="preserve">PhysLoc </t>
-  </si>
-  <si>
-    <t>(extent_ordinal,ordinal_in_extent)</t>
-  </si>
-  <si>
     <t xml:space="preserve">max extents: </t>
   </si>
   <si>
@@ -347,9 +351,6 @@
     <t>(in one extent)</t>
   </si>
   <si>
-    <t>ExtentLocs</t>
-  </si>
-  <si>
     <t>e1</t>
   </si>
   <si>
@@ -390,6 +391,102 @@
   </si>
   <si>
     <t>note also tombstoning VLocDict is not required would be defensive.</t>
+  </si>
+  <si>
+    <t>snapshot semantics:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  retrieve deleted items if optime in header is after start of our cursor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  stop when hit endPoint, so that new inserted items are not returned (nor moved items)</t>
+  </si>
+  <si>
+    <t>Delete operation</t>
+  </si>
+  <si>
+    <t>(no longer have reverse vloc lookup capability)</t>
+  </si>
+  <si>
+    <t>Sample Layout for a collection (namespace)</t>
+  </si>
+  <si>
+    <t>NamspaceDetails</t>
+  </si>
+  <si>
+    <t>ExtentLocs diskloc</t>
+  </si>
+  <si>
+    <t>Loc types</t>
+  </si>
+  <si>
+    <t>DiskLoc - unchanged</t>
+  </si>
+  <si>
+    <t>PhysLoc - (extent_ordinal,ordinal_in_extent)</t>
+  </si>
+  <si>
+    <t>Vloc - a virtual location.  Maps to a PhysLoc.  Does not change on a move.</t>
+  </si>
+  <si>
+    <t>dict0</t>
+  </si>
+  <si>
+    <t>dict1</t>
+  </si>
+  <si>
+    <t>dict2</t>
+  </si>
+  <si>
+    <t>dict3</t>
+  </si>
+  <si>
+    <t>dictN</t>
+  </si>
+  <si>
+    <t>RecordExtentLocs</t>
+  </si>
+  <si>
+    <t>VLocDictLocs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">location of the VLocDict structures.  </t>
+  </si>
+  <si>
+    <t>vd1</t>
+  </si>
+  <si>
+    <t>vd2</t>
+  </si>
+  <si>
+    <t>vd3</t>
+  </si>
+  <si>
+    <t>^- if full, realloc whole thing, never real large</t>
+  </si>
+  <si>
+    <t>these get bigger in a predefined way so one can quickly look up a given</t>
+  </si>
+  <si>
+    <t>vloc ordinal's PhysLoc</t>
+  </si>
+  <si>
+    <t>v0</t>
+  </si>
+  <si>
+    <t>v1</t>
+  </si>
+  <si>
+    <t>v2</t>
+  </si>
+  <si>
+    <t>v3</t>
+  </si>
+  <si>
+    <t>v4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhysLocs: </t>
   </si>
 </sst>
 </file>
@@ -398,9 +495,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -431,8 +528,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -445,8 +562,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -555,12 +678,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -577,12 +714,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -605,7 +736,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -616,8 +747,29 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="60% - Accent4" xfId="2" builtinId="44"/>
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -637,13 +789,13 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>9</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>171450</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -682,15 +834,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -726,15 +878,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>38</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>9526</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -772,13 +924,13 @@
     <xdr:from>
       <xdr:col>45</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>56</xdr:row>
+      <xdr:row>63</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>45</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>72</xdr:row>
       <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -817,16 +969,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>49</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>90</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -835,8 +987,52 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="6505575" y="15801975"/>
-          <a:ext cx="1714501" cy="1343025"/>
+          <a:off x="6496050" y="15801975"/>
+          <a:ext cx="1724027" cy="781050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>62</xdr:col>
+      <xdr:colOff>295277</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Connector 18"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11791950" y="17897475"/>
+          <a:ext cx="1895477" cy="1457325"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -862,39 +1058,338 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>295277</xdr:colOff>
-      <xdr:row>101</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>44</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="19" name="Straight Connector 18"/>
+        <xdr:cNvPr id="5" name="Curved Connector 4"/>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="11791950" y="17897475"/>
-          <a:ext cx="1895477" cy="1457325"/>
+        <a:xfrm>
+          <a:off x="11877675" y="847725"/>
+          <a:ext cx="5486400" cy="2028825"/>
         </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 72222"/>
+          </a:avLst>
         </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Curved Connector 11"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="16240125" y="3028949"/>
+          <a:ext cx="1943100" cy="1266825"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>57152</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="Curved Connector 17"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="16202025" y="2933699"/>
+          <a:ext cx="1562102" cy="28575"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 67683"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="Curved Connector 24"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000" flipV="1">
+          <a:off x="16221075" y="2943225"/>
+          <a:ext cx="3238500" cy="2695574"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 73824"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>19051</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142873</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Curved Connector 30"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="17297400" y="4762499"/>
+          <a:ext cx="1028701" cy="171450"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>190498</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>180977</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>3</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="34" name="Curved Connector 33"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="17383124" y="4895850"/>
+          <a:ext cx="1333505" cy="304801"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>46</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28573</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>142878</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Curved Connector 35"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="17387888" y="4976810"/>
+          <a:ext cx="1657352" cy="523878"/>
+        </a:xfrm>
+        <a:prstGeom prst="curvedConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -1192,11 +1687,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="F5:AS120"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="F2:BR127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="T112" sqref="T112"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" workbookViewId="0">
+      <selection activeCell="AS30" sqref="AS30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1206,168 +1701,131 @@
     <col min="8" max="8" width="7.42578125" customWidth="1"/>
     <col min="15" max="15" width="7.85546875" customWidth="1"/>
     <col min="17" max="19" width="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7" customWidth="1"/>
     <col min="27" max="27" width="7.140625" customWidth="1"/>
     <col min="36" max="36" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="H5" t="s">
+    <row r="2" spans="6:65" x14ac:dyDescent="0.25">
+      <c r="AA2" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="AU2" s="21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="6:65" x14ac:dyDescent="0.25">
+      <c r="AU3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="4" spans="6:65" x14ac:dyDescent="0.25">
+      <c r="AA4" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="AU4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="6:65" x14ac:dyDescent="0.25">
+      <c r="AA5" s="31" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB5" s="32"/>
+      <c r="AC5" s="32"/>
+      <c r="AD5" s="33"/>
+      <c r="AU5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="6:65" x14ac:dyDescent="0.25">
+      <c r="AU9" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH9" t="s">
+        <v>67</v>
+      </c>
+      <c r="BK9" s="22">
+        <f>48*1024*1024/2</f>
+        <v>25165824</v>
+      </c>
+      <c r="BL9">
+        <f>LOG(BK9,2)</f>
+        <v>24.584962500721158</v>
+      </c>
+      <c r="BM9" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="6:65" x14ac:dyDescent="0.25">
+      <c r="AU10" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH10" t="s">
+        <v>69</v>
+      </c>
+      <c r="BK10" s="22">
+        <f>2*1024*2014/20</f>
+        <v>206233.60000000001</v>
+      </c>
+      <c r="BL10">
+        <f>LOG(BK10,2)</f>
+        <v>17.653919873119424</v>
+      </c>
+      <c r="BM10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="6:65" x14ac:dyDescent="0.25">
+      <c r="BL11">
+        <f>SUM(BL9:BL10)</f>
+        <v>42.238882373840582</v>
+      </c>
+    </row>
+    <row r="12" spans="6:65" x14ac:dyDescent="0.25">
+      <c r="F12" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="H12" t="s">
         <v>0</v>
       </c>
-      <c r="O5" t="s">
+      <c r="O12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
+    <row r="13" spans="6:65" x14ac:dyDescent="0.25">
+      <c r="H13" t="s">
         <v>2</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
+    <row r="14" spans="6:65" x14ac:dyDescent="0.25">
+      <c r="H14" t="s">
         <v>4</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O14" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="6:65" x14ac:dyDescent="0.25">
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="O15" t="s">
         <v>41</v>
       </c>
-      <c r="AA7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="H8" t="s">
-        <v>46</v>
-      </c>
-      <c r="O8" t="s">
-        <v>47</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB8" s="6" t="s">
+      <c r="AA15" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK8" s="6"/>
-      <c r="AL8" s="6"/>
-      <c r="AM8" s="6"/>
-      <c r="AN8" s="6"/>
-      <c r="AO8" s="7"/>
-    </row>
-    <row r="9" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="G9" s="19"/>
-      <c r="AA9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="AG9" s="4"/>
-      <c r="AH9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI9" s="4"/>
-      <c r="AJ9" s="4">
-        <v>3300</v>
-      </c>
-      <c r="AK9" s="4">
-        <v>3120</v>
-      </c>
-      <c r="AL9" s="4">
-        <v>2300</v>
-      </c>
-      <c r="AM9" s="4">
-        <v>2200</v>
-      </c>
-      <c r="AN9" s="4">
-        <v>80</v>
-      </c>
-      <c r="AO9" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="S10" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>1</v>
-      </c>
-      <c r="AD10">
-        <v>2</v>
-      </c>
-      <c r="AE10">
-        <v>3</v>
-      </c>
-      <c r="AF10">
-        <v>4</v>
-      </c>
-      <c r="AK10">
-        <v>4</v>
-      </c>
-      <c r="AL10">
-        <v>3</v>
-      </c>
-      <c r="AM10">
-        <v>2</v>
-      </c>
-      <c r="AN10">
-        <v>1</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="AJ12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="AA14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="F15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" s="17"/>
-      <c r="AA15" s="5" t="s">
-        <v>19</v>
-      </c>
       <c r="AB15" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC15" s="6"/>
       <c r="AD15" s="6"/>
@@ -1375,492 +1833,847 @@
       <c r="AF15" s="6"/>
       <c r="AG15" s="6"/>
       <c r="AH15" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI15" s="6"/>
       <c r="AJ15" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK15" s="6"/>
       <c r="AL15" s="6"/>
       <c r="AM15" s="6"/>
       <c r="AN15" s="6"/>
       <c r="AO15" s="7"/>
-    </row>
-    <row r="16" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="F16" s="11"/>
-      <c r="G16" s="18"/>
-      <c r="AA16" s="13" t="s">
-        <v>24</v>
+      <c r="AU15" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AY15" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="6:65" x14ac:dyDescent="0.25">
+      <c r="G16" s="17"/>
+      <c r="AA16" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AB16" s="4" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="AC16" s="4" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="AD16" s="4" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="AE16" s="4" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="AF16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG16" s="4" t="s">
-        <v>24</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="AG16" s="4"/>
       <c r="AH16" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI16" s="4"/>
-      <c r="AJ16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN16" s="4" t="s">
-        <v>24</v>
+      <c r="AJ16" s="4">
+        <v>3300</v>
+      </c>
+      <c r="AK16" s="4">
+        <v>3120</v>
+      </c>
+      <c r="AL16" s="4">
+        <v>2300</v>
+      </c>
+      <c r="AM16" s="4">
+        <v>2200</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>80</v>
       </c>
       <c r="AO16" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="F17" s="3" t="s">
+      <c r="AT16" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU16" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="AV16" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AW16" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="AX16" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY16" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AZ16" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA16" s="13"/>
+      <c r="BB16" s="13"/>
+      <c r="BC16" s="13"/>
+      <c r="BD16" s="13"/>
+      <c r="BE16" s="13"/>
+      <c r="BF16" s="13"/>
+      <c r="BG16" s="14"/>
+      <c r="BH16" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="6:64" x14ac:dyDescent="0.25">
+      <c r="V17" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>2</v>
+      </c>
+      <c r="AE17">
+        <v>3</v>
+      </c>
+      <c r="AF17">
+        <v>4</v>
+      </c>
+      <c r="AK17">
+        <v>4</v>
+      </c>
+      <c r="AL17">
+        <v>3</v>
+      </c>
+      <c r="AM17">
+        <v>2</v>
+      </c>
+      <c r="AN17">
+        <v>1</v>
+      </c>
+      <c r="AO17">
+        <v>0</v>
+      </c>
+      <c r="AU17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="6:64" x14ac:dyDescent="0.25">
+      <c r="AJ19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="6:64" x14ac:dyDescent="0.25">
+      <c r="AA21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="6:64" x14ac:dyDescent="0.25">
+      <c r="F22" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="AA22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB22" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC22" s="6"/>
+      <c r="AD22" s="6"/>
+      <c r="AE22" s="6"/>
+      <c r="AF22" s="6"/>
+      <c r="AG22" s="6"/>
+      <c r="AH22" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI22" s="6"/>
+      <c r="AJ22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK22" s="6"/>
+      <c r="AL22" s="6"/>
+      <c r="AM22" s="6"/>
+      <c r="AN22" s="6"/>
+      <c r="AO22" s="7"/>
+      <c r="AU22" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="6:64" x14ac:dyDescent="0.25">
+      <c r="F23" s="28"/>
+      <c r="G23" s="16"/>
+      <c r="AA23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH23" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI23" s="4"/>
+      <c r="AJ23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO23" s="9">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="AU23" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AV23" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="AW23" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AX23" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY23" s="13"/>
+      <c r="AZ23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA23" s="13"/>
+      <c r="BB23" s="13"/>
+      <c r="BC23" s="13"/>
+      <c r="BD23" s="13"/>
+      <c r="BE23" s="13"/>
+      <c r="BF23" s="13"/>
+      <c r="BG23" s="14"/>
+      <c r="BH23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="6:64" x14ac:dyDescent="0.25">
+      <c r="F24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="AU24" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="26" spans="6:64" x14ac:dyDescent="0.25">
+      <c r="AH26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="6:64" x14ac:dyDescent="0.25">
+      <c r="AU27" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="6:64" x14ac:dyDescent="0.25">
+      <c r="F28" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="19" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="AH19" t="s">
+      <c r="AA28" t="s">
+        <v>34</v>
+      </c>
+      <c r="AS28" t="s">
+        <v>22</v>
+      </c>
+      <c r="AU28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AV28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AW28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AX28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY28" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="6:64" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB29" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC29" s="6"/>
+      <c r="AD29" s="6"/>
+      <c r="AE29" s="6"/>
+      <c r="AF29" s="6"/>
+      <c r="AG29" s="6"/>
+      <c r="AH29" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI29" s="6"/>
+      <c r="AJ29" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK29" s="6"/>
+      <c r="AL29" s="6"/>
+      <c r="AM29" s="6"/>
+      <c r="AN29" s="6"/>
+      <c r="AO29" s="7"/>
+      <c r="AS29" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU29" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="AV29" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="AW29" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="AX29" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY29" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="AZ29" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA29" s="13"/>
+      <c r="BB29" s="13"/>
+      <c r="BC29" s="13"/>
+      <c r="BD29" s="13"/>
+      <c r="BE29" s="13"/>
+      <c r="BF29" s="13"/>
+      <c r="BG29" s="14"/>
+      <c r="BH29" t="s">
+        <v>59</v>
+      </c>
+      <c r="BL29" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="30" spans="6:64" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA30" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH30" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI30" s="4"/>
+      <c r="AJ30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AK30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AM30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AN30" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO30" s="9">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="31" spans="6:64" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="AU31" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV31" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW31" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX31" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY31" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ31" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA31" s="13"/>
+      <c r="BB31" s="13"/>
+      <c r="BC31" s="13"/>
+      <c r="BD31" s="13"/>
+      <c r="BE31" s="13"/>
+      <c r="BF31" s="13"/>
+      <c r="BG31" s="13"/>
+      <c r="BH31" s="14"/>
+      <c r="BI31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="6:64" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="6:63" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
+      <c r="AI33" s="29"/>
+      <c r="AJ33" s="29"/>
+      <c r="AK33" s="29"/>
+      <c r="AL33" s="29"/>
+      <c r="AM33" s="29"/>
+      <c r="AN33" s="29"/>
+      <c r="AO33" s="29"/>
+      <c r="AP33" s="29"/>
+      <c r="AQ33" s="29"/>
+      <c r="AR33" s="29"/>
+      <c r="AU33" s="34" t="s">
+        <v>54</v>
+      </c>
+      <c r="AV33" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="AW33" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="AX33" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="AY33" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ33" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA33" s="13"/>
+      <c r="BB33" s="13"/>
+      <c r="BC33" s="13"/>
+      <c r="BD33" s="13"/>
+      <c r="BE33" s="13"/>
+      <c r="BF33" s="13"/>
+      <c r="BG33" s="13"/>
+      <c r="BH33" s="13"/>
+      <c r="BI33" s="13"/>
+      <c r="BJ33" s="14"/>
+      <c r="BK33" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="6:63" x14ac:dyDescent="0.25">
+      <c r="AA36" s="21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="6:63" x14ac:dyDescent="0.25">
+      <c r="AA38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB38" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC38" s="6"/>
+      <c r="AD38" s="6"/>
+      <c r="AE38" s="6"/>
+      <c r="AF38" s="6"/>
+      <c r="AG38" s="6"/>
+      <c r="AH38" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI38" s="6"/>
+      <c r="AJ38" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK38" s="6"/>
+      <c r="AL38" s="6"/>
+      <c r="AM38" s="6"/>
+      <c r="AN38" s="6"/>
+      <c r="AO38" s="7"/>
+    </row>
+    <row r="39" spans="6:63" x14ac:dyDescent="0.25">
+      <c r="AA39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB39" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD39" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE39" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4">
+        <v>3300</v>
+      </c>
+      <c r="AK39" s="4">
+        <v>3120</v>
+      </c>
+      <c r="AL39" s="4">
+        <v>2300</v>
+      </c>
+      <c r="AM39" s="4">
+        <v>2200</v>
+      </c>
+      <c r="AN39" s="4">
+        <v>80</v>
+      </c>
+      <c r="AO39" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="6:63" x14ac:dyDescent="0.25">
+      <c r="X42" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y42" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA42" s="13"/>
+      <c r="AB42" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC42" s="14"/>
+      <c r="AD42" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="AW42" s="21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="6:63" x14ac:dyDescent="0.25">
+      <c r="Y43" s="17"/>
+      <c r="AW43" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="6:63" x14ac:dyDescent="0.25">
+      <c r="X44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="Y44" s="18">
+        <v>1</v>
+      </c>
+      <c r="Z44" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA44" s="13"/>
+      <c r="AB44" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC44" s="14"/>
+      <c r="AD44" s="12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="45" spans="6:63" x14ac:dyDescent="0.25">
+      <c r="Y45" s="17"/>
+      <c r="Z45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="6:63" x14ac:dyDescent="0.25">
+      <c r="Z46" s="30" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="6:63" x14ac:dyDescent="0.25">
+      <c r="AW47" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AX47" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY47" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ47" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="BA47" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB47" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC47" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BD47" s="13"/>
+      <c r="BE47" s="13"/>
+      <c r="BF47" s="13"/>
+      <c r="BG47" s="13"/>
+      <c r="BH47" s="13"/>
+      <c r="BI47" s="13"/>
+      <c r="BJ47" s="14"/>
+      <c r="BK47" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="6:63" x14ac:dyDescent="0.25">
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AY48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="BB48" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="BC48" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" spans="6:70" x14ac:dyDescent="0.25">
+      <c r="F49" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="6:70" x14ac:dyDescent="0.25">
+      <c r="F50" t="s">
+        <v>38</v>
+      </c>
+      <c r="BB50" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD50" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="BE50" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="BF50" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="BG50" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="BH50" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="BI50" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="BJ50" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="BK50" s="13"/>
+      <c r="BL50" s="13"/>
+      <c r="BM50" s="13"/>
+      <c r="BN50" s="13"/>
+      <c r="BO50" s="13"/>
+      <c r="BP50" s="13"/>
+      <c r="BQ50" s="14"/>
+      <c r="BR50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="6:70" x14ac:dyDescent="0.25">
+      <c r="F51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="F21" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="22" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="AA22" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="F23" t="s">
+    <row r="52" spans="6:70" x14ac:dyDescent="0.25">
+      <c r="BE52" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF52" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="BG52" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="BH52" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI52" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ52" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="6:70" x14ac:dyDescent="0.25">
+      <c r="BD53" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE53" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="BF53" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="BG53" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="BH53" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="BI53" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="BJ53" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="BK53" s="13"/>
+      <c r="BL53" s="13"/>
+      <c r="BM53" s="13"/>
+      <c r="BN53" s="13"/>
+      <c r="BO53" s="13"/>
+      <c r="BP53" s="13"/>
+      <c r="BQ53" s="14"/>
+      <c r="BR53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="55" spans="6:70" x14ac:dyDescent="0.25">
+      <c r="AY55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="6:70" x14ac:dyDescent="0.25">
+      <c r="AW58" t="s">
+        <v>97</v>
+      </c>
+      <c r="AX58" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY58" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ58" t="s">
+        <v>100</v>
+      </c>
+      <c r="BA58" t="s">
+        <v>33</v>
+      </c>
+      <c r="BB58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="60" spans="6:70" x14ac:dyDescent="0.25">
+      <c r="AA60" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="62" spans="6:70" x14ac:dyDescent="0.25">
+      <c r="AA62" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="63" spans="6:70" x14ac:dyDescent="0.25">
+      <c r="AA63" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB63" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="AA23" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB23" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC23" s="6"/>
-      <c r="AD23" s="6"/>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK23" s="6"/>
-      <c r="AL23" s="6"/>
-      <c r="AM23" s="6"/>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="7"/>
-    </row>
-    <row r="24" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="F24" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AC24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AD24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AH24" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI24" s="4"/>
-      <c r="AJ24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AK24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AL24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AM24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AN24" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AO24" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="F25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="F27" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="F28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="I29" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="I31" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q31" s="6"/>
-      <c r="R31" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="S31" s="6"/>
-      <c r="T31" s="6"/>
-      <c r="U31" s="6"/>
-      <c r="V31" s="6"/>
-      <c r="W31" s="7"/>
-    </row>
-    <row r="32" spans="6:41" x14ac:dyDescent="0.25">
-      <c r="I32" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J32" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="K32" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="L32" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="M32" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="N32" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="O32" s="4"/>
-      <c r="P32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="Q32" s="4"/>
-      <c r="R32" s="4">
-        <v>3300</v>
-      </c>
-      <c r="S32" s="4">
-        <v>3120</v>
-      </c>
-      <c r="T32" s="4">
-        <v>2300</v>
-      </c>
-      <c r="U32" s="4">
-        <v>2200</v>
-      </c>
-      <c r="V32" s="4">
-        <v>80</v>
-      </c>
-      <c r="W32" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F35" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G35" s="20">
-        <v>0</v>
-      </c>
-      <c r="H35" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" s="15"/>
-      <c r="J35" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="16"/>
-      <c r="L35" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="G36" s="19"/>
-    </row>
-    <row r="37" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F37" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G37" s="20">
-        <v>1</v>
-      </c>
-      <c r="H37" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="I37" s="15"/>
-      <c r="J37" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="16"/>
-      <c r="L37" s="14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="38" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="G38" s="19"/>
-      <c r="H38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F41" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F42" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="6:12" x14ac:dyDescent="0.25">
-      <c r="F44" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="53" spans="20:45" x14ac:dyDescent="0.25">
-      <c r="AA53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="20:45" x14ac:dyDescent="0.25">
-      <c r="AA55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="20:45" x14ac:dyDescent="0.25">
-      <c r="AA56" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB56" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC56" s="6"/>
-      <c r="AD56" s="6"/>
-      <c r="AE56" s="6"/>
-      <c r="AF56" s="6"/>
-      <c r="AG56" s="6"/>
-      <c r="AH56" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI56" s="6"/>
-      <c r="AJ56" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK56" s="6"/>
-      <c r="AL56" s="6"/>
-      <c r="AM56" s="6"/>
-      <c r="AN56" s="6"/>
-      <c r="AO56" s="7"/>
-    </row>
-    <row r="57" spans="20:45" x14ac:dyDescent="0.25">
-      <c r="AA57" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB57" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC57" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD57" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE57" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF57" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG57" s="4"/>
-      <c r="AH57" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI57" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AJ57" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AK57" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AL57" s="4">
-        <v>2300</v>
-      </c>
-      <c r="AM57" s="4">
-        <v>2200</v>
-      </c>
-      <c r="AN57" s="4">
-        <v>80</v>
-      </c>
-      <c r="AO57" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="20:45" x14ac:dyDescent="0.25">
-      <c r="T59" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA59" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB59" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC59" s="6"/>
-      <c r="AD59" s="6"/>
-      <c r="AE59" s="6"/>
-      <c r="AF59" s="6"/>
-      <c r="AG59" s="6"/>
-      <c r="AH59" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI59" s="6"/>
-      <c r="AJ59" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK59" s="6"/>
-      <c r="AL59" s="6"/>
-      <c r="AM59" s="6"/>
-      <c r="AN59" s="6"/>
-      <c r="AO59" s="7"/>
-    </row>
-    <row r="60" spans="20:45" x14ac:dyDescent="0.25">
-      <c r="AA60" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="AB60" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC60" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD60" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE60" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF60" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AG60" s="4"/>
-      <c r="AH60" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI60" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AJ60" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AK60" s="4">
-        <v>-2500</v>
-      </c>
-      <c r="AL60" s="4">
-        <v>2300</v>
-      </c>
-      <c r="AM60" s="4">
-        <v>2200</v>
-      </c>
-      <c r="AN60" s="4">
-        <v>80</v>
-      </c>
-      <c r="AO60" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="20:45" x14ac:dyDescent="0.25">
-      <c r="AK61" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="62" spans="20:45" x14ac:dyDescent="0.25">
-      <c r="AS62" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="63" spans="20:45" x14ac:dyDescent="0.25">
-      <c r="T63" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA63" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB63" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="AC63" s="6"/>
       <c r="AD63" s="6"/>
@@ -1868,11 +2681,11 @@
       <c r="AF63" s="6"/>
       <c r="AG63" s="6"/>
       <c r="AH63" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI63" s="6"/>
       <c r="AJ63" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK63" s="6"/>
       <c r="AL63" s="6"/>
@@ -1880,9 +2693,9 @@
       <c r="AN63" s="6"/>
       <c r="AO63" s="7"/>
     </row>
-    <row r="64" spans="20:45" x14ac:dyDescent="0.25">
-      <c r="AA64" s="12" t="s">
-        <v>24</v>
+    <row r="64" spans="6:70" x14ac:dyDescent="0.25">
+      <c r="AA64" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AB64" s="4" t="s">
         <v>6</v>
@@ -1894,23 +2707,23 @@
         <v>8</v>
       </c>
       <c r="AE64" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AF64" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="AG64" s="4"/>
       <c r="AH64" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI64" s="4">
         <v>-1</v>
       </c>
       <c r="AJ64" s="4">
-        <v>-2560</v>
+        <v>-1</v>
       </c>
       <c r="AK64" s="4">
-        <v>-2500</v>
+        <v>-1</v>
       </c>
       <c r="AL64" s="4">
         <v>2300</v>
@@ -1925,15 +2738,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="20:41" x14ac:dyDescent="0.25">
+    <row r="66" spans="20:45" x14ac:dyDescent="0.25">
       <c r="T66" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="AA66" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB66" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC66" s="6"/>
       <c r="AD66" s="6"/>
@@ -1941,11 +2754,11 @@
       <c r="AF66" s="6"/>
       <c r="AG66" s="6"/>
       <c r="AH66" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AI66" s="6"/>
       <c r="AJ66" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AK66" s="6"/>
       <c r="AL66" s="6"/>
@@ -1953,9 +2766,9 @@
       <c r="AN66" s="6"/>
       <c r="AO66" s="7"/>
     </row>
-    <row r="67" spans="20:41" x14ac:dyDescent="0.25">
-      <c r="AA67" s="12" t="s">
-        <v>24</v>
+    <row r="67" spans="20:45" x14ac:dyDescent="0.25">
+      <c r="AA67" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="AB67" s="4" t="s">
         <v>6</v>
@@ -1967,20 +2780,20 @@
         <v>8</v>
       </c>
       <c r="AE67" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF67" s="21" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="AF67" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="AG67" s="4"/>
       <c r="AH67" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AI67" s="4">
         <v>-1</v>
       </c>
       <c r="AJ67" s="4">
-        <v>2560</v>
+        <v>-1</v>
       </c>
       <c r="AK67" s="4">
         <v>-2500</v>
@@ -1998,439 +2811,360 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="20:41" x14ac:dyDescent="0.25">
-      <c r="T69" t="s">
+    <row r="68" spans="20:45" x14ac:dyDescent="0.25">
+      <c r="AK68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="20:45" x14ac:dyDescent="0.25">
+      <c r="AS69" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="20:45" x14ac:dyDescent="0.25">
+      <c r="T70" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA70" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB70" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC70" s="6"/>
+      <c r="AD70" s="6"/>
+      <c r="AE70" s="6"/>
+      <c r="AF70" s="6"/>
+      <c r="AG70" s="6"/>
+      <c r="AH70" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI70" s="6"/>
+      <c r="AJ70" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK70" s="6"/>
+      <c r="AL70" s="6"/>
+      <c r="AM70" s="6"/>
+      <c r="AN70" s="6"/>
+      <c r="AO70" s="7"/>
+    </row>
+    <row r="71" spans="20:45" x14ac:dyDescent="0.25">
+      <c r="AA71" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB71" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC71" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD71" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF71" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AG71" s="4"/>
+      <c r="AH71" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI71" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AJ71" s="4">
+        <v>-2560</v>
+      </c>
+      <c r="AK71" s="4">
+        <v>-2500</v>
+      </c>
+      <c r="AL71" s="4">
+        <v>2300</v>
+      </c>
+      <c r="AM71" s="4">
+        <v>2200</v>
+      </c>
+      <c r="AN71" s="4">
+        <v>80</v>
+      </c>
+      <c r="AO71" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="20:45" x14ac:dyDescent="0.25">
+      <c r="T73" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA73" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB73" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC73" s="6"/>
+      <c r="AD73" s="6"/>
+      <c r="AE73" s="6"/>
+      <c r="AF73" s="6"/>
+      <c r="AG73" s="6"/>
+      <c r="AH73" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI73" s="6"/>
+      <c r="AJ73" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK73" s="6"/>
+      <c r="AL73" s="6"/>
+      <c r="AM73" s="6"/>
+      <c r="AN73" s="6"/>
+      <c r="AO73" s="7"/>
+    </row>
+    <row r="74" spans="20:45" x14ac:dyDescent="0.25">
+      <c r="AA74" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB74" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC74" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD74" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE74" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF74" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG74" s="4"/>
+      <c r="AH74" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI74" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AJ74" s="4">
+        <v>2560</v>
+      </c>
+      <c r="AK74" s="4">
+        <v>-2500</v>
+      </c>
+      <c r="AL74" s="4">
+        <v>2300</v>
+      </c>
+      <c r="AM74" s="4">
+        <v>2200</v>
+      </c>
+      <c r="AN74" s="4">
+        <v>80</v>
+      </c>
+      <c r="AO74" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="20:45" x14ac:dyDescent="0.25">
+      <c r="T76" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA76" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB76" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="AC76" s="6"/>
+      <c r="AD76" s="6"/>
+      <c r="AE76" s="6"/>
+      <c r="AF76" s="6"/>
+      <c r="AG76" s="6"/>
+      <c r="AH76" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI76" s="6"/>
+      <c r="AJ76" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="AK76" s="6"/>
+      <c r="AL76" s="6"/>
+      <c r="AM76" s="6"/>
+      <c r="AN76" s="6"/>
+      <c r="AO76" s="7"/>
+    </row>
+    <row r="77" spans="20:45" x14ac:dyDescent="0.25">
+      <c r="AA77" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AB77" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC77" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD77" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE77" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF77" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG77" s="4"/>
+      <c r="AH77" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="AI77" s="4">
+        <v>-1</v>
+      </c>
+      <c r="AJ77" s="4">
+        <v>2560</v>
+      </c>
+      <c r="AK77" s="4">
+        <v>2500</v>
+      </c>
+      <c r="AL77" s="4">
+        <v>2300</v>
+      </c>
+      <c r="AM77" s="4">
+        <v>2200</v>
+      </c>
+      <c r="AN77" s="4">
+        <v>80</v>
+      </c>
+      <c r="AO77" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="20:45" x14ac:dyDescent="0.25">
+      <c r="AB79" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="114" spans="20:33" x14ac:dyDescent="0.25">
+      <c r="T114" s="21" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="20:33" x14ac:dyDescent="0.25">
+      <c r="U115" s="17">
+        <v>0</v>
+      </c>
+      <c r="V115" s="17">
+        <v>1</v>
+      </c>
+      <c r="W115" s="17">
+        <v>2</v>
+      </c>
+      <c r="X115" s="17">
+        <v>3</v>
+      </c>
+      <c r="Y115" s="17">
+        <v>4</v>
+      </c>
+      <c r="Z115" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="116" spans="20:33" x14ac:dyDescent="0.25">
+      <c r="T116" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="U116" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="V116" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="AA69" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB69" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC69" s="6"/>
-      <c r="AD69" s="6"/>
-      <c r="AE69" s="6"/>
-      <c r="AF69" s="6"/>
-      <c r="AG69" s="6"/>
-      <c r="AH69" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="AI69" s="6"/>
-      <c r="AJ69" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AK69" s="6"/>
-      <c r="AL69" s="6"/>
-      <c r="AM69" s="6"/>
-      <c r="AN69" s="6"/>
-      <c r="AO69" s="7"/>
-    </row>
-    <row r="70" spans="20:41" x14ac:dyDescent="0.25">
-      <c r="AA70" s="12" t="s">
+      <c r="W116" s="24">
+        <v>-1</v>
+      </c>
+      <c r="X116" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y116" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z116" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA116" s="13"/>
+      <c r="AB116" s="13"/>
+      <c r="AC116" s="13"/>
+      <c r="AD116" s="13"/>
+      <c r="AE116" s="13"/>
+      <c r="AF116" s="13"/>
+      <c r="AG116" s="14"/>
+    </row>
+    <row r="117" spans="20:33" x14ac:dyDescent="0.25">
+      <c r="W117" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="119" spans="20:33" x14ac:dyDescent="0.25">
+      <c r="T119" s="21" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="120" spans="20:33" x14ac:dyDescent="0.25">
+      <c r="T120" s="25" t="s">
+        <v>81</v>
+      </c>
+      <c r="U120" s="20">
+        <v>2</v>
+      </c>
+      <c r="V120" s="26">
+        <v>9</v>
+      </c>
+      <c r="W120" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="X120" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y120" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="AB70" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="AC70" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD70" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AE70" s="21" t="s">
-        <v>56</v>
-      </c>
-      <c r="AF70" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="AG70" s="4"/>
-      <c r="AH70" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="AI70" s="4">
-        <v>-1</v>
-      </c>
-      <c r="AJ70" s="4">
-        <v>2560</v>
-      </c>
-      <c r="AK70" s="4">
-        <v>2500</v>
-      </c>
-      <c r="AL70" s="4">
-        <v>2300</v>
-      </c>
-      <c r="AM70" s="4">
-        <v>2200</v>
-      </c>
-      <c r="AN70" s="4">
-        <v>80</v>
-      </c>
-      <c r="AO70" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="20:41" x14ac:dyDescent="0.25">
-      <c r="AB72" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="79" spans="20:41" x14ac:dyDescent="0.25">
-      <c r="T79" s="23" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="80" spans="20:41" x14ac:dyDescent="0.25">
-      <c r="T80" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="82" spans="15:38" x14ac:dyDescent="0.25">
-      <c r="R82" t="s">
-        <v>59</v>
-      </c>
-      <c r="U82" s="19">
-        <v>0</v>
-      </c>
-      <c r="V82" s="19">
-        <v>1</v>
-      </c>
-      <c r="W82" s="19">
-        <v>2</v>
-      </c>
-      <c r="X82" s="19">
-        <v>3</v>
-      </c>
-      <c r="Y82" s="19">
-        <v>4</v>
-      </c>
-      <c r="Z82" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="83" spans="15:38" x14ac:dyDescent="0.25">
-      <c r="R83" t="s">
-        <v>60</v>
-      </c>
-      <c r="T83" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="U83" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="V83" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="W83" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="X83" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y83" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z83" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA83" s="15"/>
-      <c r="AB83" s="15"/>
-      <c r="AC83" s="15"/>
-      <c r="AD83" s="15"/>
-      <c r="AE83" s="15"/>
-      <c r="AF83" s="15"/>
-      <c r="AG83" s="16"/>
-      <c r="AH83" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="85" spans="15:38" x14ac:dyDescent="0.25">
-      <c r="U85" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="V85" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="W85" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="X85" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y85" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z85" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="86" spans="15:38" x14ac:dyDescent="0.25">
-      <c r="T86" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="U86" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="V86" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="W86" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="X86" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y86" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z86" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA86" s="15"/>
-      <c r="AB86" s="15"/>
-      <c r="AC86" s="15"/>
-      <c r="AD86" s="15"/>
-      <c r="AE86" s="15"/>
-      <c r="AF86" s="15"/>
-      <c r="AG86" s="16"/>
-      <c r="AH86" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="15:38" x14ac:dyDescent="0.25">
-      <c r="O91" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="94" spans="15:38" x14ac:dyDescent="0.25">
-      <c r="T94" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="AG94" t="s">
-        <v>77</v>
-      </c>
-      <c r="AJ94" s="24">
-        <f>48*1024*1024/2</f>
-        <v>25165824</v>
-      </c>
-      <c r="AK94">
-        <f>LOG(AJ94,2)</f>
-        <v>24.584962500721158</v>
-      </c>
-      <c r="AL94" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="95" spans="15:38" x14ac:dyDescent="0.25">
-      <c r="T95" t="s">
-        <v>76</v>
-      </c>
-      <c r="AG95" t="s">
-        <v>79</v>
-      </c>
-      <c r="AJ95" s="24">
-        <f>2*1024*2014/20</f>
-        <v>206233.60000000001</v>
-      </c>
-      <c r="AK95">
-        <f>LOG(AJ95,2)</f>
-        <v>17.653919873119424</v>
-      </c>
-      <c r="AL95" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="15:38" x14ac:dyDescent="0.25">
-      <c r="AK96">
-        <f>SUM(AK94:AK95)</f>
-        <v>42.238882373840582</v>
-      </c>
-    </row>
-    <row r="99" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="T99" s="23" t="s">
-        <v>81</v>
-      </c>
-      <c r="W99" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="100" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="T100" s="19">
-        <v>0</v>
-      </c>
-      <c r="U100" s="19">
-        <v>1</v>
-      </c>
-      <c r="V100" s="19">
-        <v>2</v>
-      </c>
-      <c r="W100" s="19">
-        <v>3</v>
-      </c>
-      <c r="X100" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y100" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="101" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="S101" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="T101" s="22" t="s">
+      <c r="Z120" s="13"/>
+      <c r="AA120" s="13"/>
+      <c r="AB120" s="13"/>
+      <c r="AC120" s="13"/>
+      <c r="AD120" s="13"/>
+      <c r="AE120" s="13"/>
+      <c r="AF120" s="13"/>
+      <c r="AG120" s="14"/>
+    </row>
+    <row r="121" spans="20:33" x14ac:dyDescent="0.25">
+      <c r="V121" t="s">
         <v>82</v>
       </c>
-      <c r="U101" s="22" t="s">
+    </row>
+    <row r="122" spans="20:33" x14ac:dyDescent="0.25">
+      <c r="V122" t="s">
         <v>83</v>
       </c>
-      <c r="V101" s="22" t="s">
+    </row>
+    <row r="123" spans="20:33" x14ac:dyDescent="0.25">
+      <c r="V123" t="s">
         <v>84</v>
       </c>
-      <c r="W101" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="X101" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y101" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z101" s="15"/>
-      <c r="AA101" s="15"/>
-      <c r="AB101" s="15"/>
-      <c r="AC101" s="15"/>
-      <c r="AD101" s="15"/>
-      <c r="AE101" s="15"/>
-      <c r="AF101" s="16"/>
-      <c r="AG101" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="102" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="T102" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="107" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="T107" s="23" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="108" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="U108" s="19">
-        <v>0</v>
-      </c>
-      <c r="V108" s="19">
-        <v>1</v>
-      </c>
-      <c r="W108" s="19">
-        <v>2</v>
-      </c>
-      <c r="X108" s="19">
-        <v>3</v>
-      </c>
-      <c r="Y108" s="19">
-        <v>4</v>
-      </c>
-      <c r="Z108" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="109" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="T109" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="U109" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="V109" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="W109" s="26">
-        <v>-1</v>
-      </c>
-      <c r="X109" s="22" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y109" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z109" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA109" s="15"/>
-      <c r="AB109" s="15"/>
-      <c r="AC109" s="15"/>
-      <c r="AD109" s="15"/>
-      <c r="AE109" s="15"/>
-      <c r="AF109" s="15"/>
-      <c r="AG109" s="16"/>
-    </row>
-    <row r="110" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="W110" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="112" spans="19:33" x14ac:dyDescent="0.25">
-      <c r="T112" s="23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="113" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="T113" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="U113" s="22">
-        <v>2</v>
-      </c>
-      <c r="V113" s="28">
-        <v>9</v>
-      </c>
-      <c r="W113" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="X113" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y113" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z113" s="15"/>
-      <c r="AA113" s="15"/>
-      <c r="AB113" s="15"/>
-      <c r="AC113" s="15"/>
-      <c r="AD113" s="15"/>
-      <c r="AE113" s="15"/>
-      <c r="AF113" s="15"/>
-      <c r="AG113" s="16"/>
-    </row>
-    <row r="114" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="V114" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="115" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="V115" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="116" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="V116" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="120" spans="20:33" x14ac:dyDescent="0.25">
-      <c r="X120" s="25"/>
+    </row>
+    <row r="127" spans="20:33" x14ac:dyDescent="0.25">
+      <c r="X127" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="F15:F16"/>
+  <mergeCells count="2">
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="AA5:AD5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 
